--- a/xlsx/政治人类学_intext.xlsx
+++ b/xlsx/政治人类学_intext.xlsx
@@ -29,7 +29,7 @@
     <t>文化人类学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_政治人类学</t>
+    <t>政策_政策_政治学_政治人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%BE%B7%E8%8F%AF%C2%B7%E4%BC%8A%E5%87%A1%E6%99%AE%E7%90%86%E6%9F%A5</t>
   </si>
   <si>
-    <t>艾德華·伊凡普理查</t>
+    <t>艾德华·伊凡普理查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BC%97%E5%88%97%C2%B7%E8%8A%AE%E5%85%8B%E9%87%8C%E5%A4%AB-%E5%B8%83%E6%9C%97</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Max_Gluckman</t>
